--- a/Config/Excel/Server/WorldConfig.xlsx
+++ b/Config/Excel/Server/WorldConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -90,6 +90,20 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <r>
+      <t>mongodb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接字符串，有时不需要账号密码</t>
+    </r>
   </si>
   <si>
     <t>测试服</t>
@@ -114,7 +128,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -131,13 +145,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -320,6 +327,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399456770531327"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -369,12 +382,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,152 +663,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -811,25 +818,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1159,7 +1169,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1283,31 +1293,33 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.75" spans="2:8">
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>1</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="9">
+      <c r="G7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="10">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Server/WorldConfig.xlsx
+++ b/Config/Excel/Server/WorldConfig.xlsx
@@ -93,6 +93,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>mongodb</t>
     </r>
     <r>
@@ -106,13 +112,13 @@
     </r>
   </si>
   <si>
-    <t>测试服</t>
+    <t>三国1服</t>
   </si>
   <si>
     <t>mongodb://127.0.0.1</t>
   </si>
   <si>
-    <t>fantasy_main</t>
+    <t>sanguo</t>
   </si>
   <si>
     <t>MongoDB</t>
@@ -1169,7 +1175,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="7"/>
